--- a/experiments/1.xlsx
+++ b/experiments/1.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Диаграмма" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,13 +26,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,13 +56,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -123,6 +138,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9782175" cy="5210175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -134,39 +179,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,142 +288,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -390,57 +457,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:H3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.6" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="21.6" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" t="n">
-        <v>5</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Категории</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Соответствует</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Не соответствует</t>
+        </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Категория 1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
         <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Категория 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>